--- a/Final_Project/Final_Project.xlsx
+++ b/Final_Project/Final_Project.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Swarnali\Downloads\EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Swarnali\Downloads\EXCEL_Data_Analytics\Excel_Project_Data_Analytics\Final_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB94347-701F-41D4-8FC7-F198E4EE61F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792D5E71-7528-4FD6-8188-B6C8AABAD993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{6F716FE0-A4DF-418B-900B-3408E44BFC15}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{6F716FE0-A4DF-418B-900B-3408E44BFC15}"/>
   </bookViews>
   <sheets>
     <sheet name="Skill_Job_Analysis" sheetId="17" r:id="rId1"/>
@@ -27,17 +27,17 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="711" r:id="rId6"/>
-    <pivotCache cacheId="726" r:id="rId7"/>
-    <pivotCache cacheId="729" r:id="rId8"/>
-    <pivotCache cacheId="732" r:id="rId9"/>
-    <pivotCache cacheId="735" r:id="rId10"/>
+    <pivotCache cacheId="15" r:id="rId6"/>
+    <pivotCache cacheId="48" r:id="rId7"/>
+    <pivotCache cacheId="51" r:id="rId8"/>
+    <pivotCache cacheId="54" r:id="rId9"/>
+    <pivotCache cacheId="57" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
       <x14:pivotCaches>
-        <pivotCache cacheId="66" r:id="rId11"/>
-        <pivotCache cacheId="687" r:id="rId12"/>
+        <pivotCache cacheId="5" r:id="rId11"/>
+        <pivotCache cacheId="6" r:id="rId12"/>
       </x14:pivotCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -129,10 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
-  <si>
-    <t>Oracle</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="30">
   <si>
     <t>Row Labels</t>
   </si>
@@ -153,15 +150,6 @@
   </si>
   <si>
     <t>Excel</t>
-  </si>
-  <si>
-    <t>SAS</t>
-  </si>
-  <si>
-    <t>Word</t>
-  </si>
-  <si>
-    <t>Powerpoint</t>
   </si>
   <si>
     <t>Power BI</t>
@@ -212,25 +200,10 @@
     <t>Median Salary Non-US</t>
   </si>
   <si>
-    <t>Airflow</t>
-  </si>
-  <si>
     <t>AWS</t>
   </si>
   <si>
-    <t>Azure</t>
-  </si>
-  <si>
     <t>Hadoop</t>
-  </si>
-  <si>
-    <t>Java</t>
-  </si>
-  <si>
-    <t>Kafka</t>
-  </si>
-  <si>
-    <t>NoSQL</t>
   </si>
   <si>
     <t>Spark</t>
@@ -241,14 +214,20 @@
   <si>
     <t>Skill Likelihood</t>
   </si>
+  <si>
+    <t>Flow</t>
+  </si>
+  <si>
+    <t>Cloud Engineer</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="\$#,##0;\(\$#,##0\);\$#,##0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="\$#,##0;\(\$#,##0\);\$#,##0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -286,10 +265,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,7 +333,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> are the top skills ?</a:t>
+              <a:t> are the top skills of Data Jobs?</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -484,28 +463,28 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Airflow</c:v>
+                  <c:v>Hadoop</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Kafka</c:v>
+                  <c:v>Flow</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>NoSQL</c:v>
+                  <c:v>Power BI</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Azure</c:v>
+                  <c:v>Spark</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Java</c:v>
+                  <c:v>AWS</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Hadoop</c:v>
+                  <c:v>R</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>AWS</c:v>
+                  <c:v>Excel</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Spark</c:v>
+                  <c:v>Tableau</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Python</c:v>
@@ -523,34 +502,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>99</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>114</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -934,7 +913,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{26459CC6-89CB-41DB-B6CA-86827E0D221F}" type="CELLRANGE">
+                    <a:fld id="{8F2A4FA8-8894-4D9A-BE89-EF18A77442B6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -972,7 +951,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{29D593BE-4B96-4FAC-B54A-48624EF960FC}" type="CELLRANGE">
+                    <a:fld id="{59DD2A5A-8D8E-4E60-B705-C38CF46F3735}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1010,7 +989,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A1491DA2-8842-419E-93B5-6C2F45BC8C80}" type="CELLRANGE">
+                    <a:fld id="{E50E4365-B656-489C-B4B6-478653CFD02B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1048,7 +1027,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8886B523-7BD0-4369-8D58-EF3C6912869D}" type="CELLRANGE">
+                    <a:fld id="{8FFA54A8-AD61-4BB5-BEF4-F4095549413B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1086,7 +1065,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B7B580BA-6F52-46C1-AA6C-C3D6AD0808BF}" type="CELLRANGE">
+                    <a:fld id="{E1B1E39D-9354-4238-8BF4-A8EA095BC836}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1124,7 +1103,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{126F2157-1CD0-46C4-86BB-01CFACB9505A}" type="CELLRANGE">
+                    <a:fld id="{410C5BBA-8B64-401D-912E-573367A6C9FF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1162,7 +1141,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5BE3871C-10AF-412F-A549-08B9AE86A8BB}" type="CELLRANGE">
+                    <a:fld id="{71CA54DD-06B1-4736-B722-171F03A05C81}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1200,7 +1179,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AFEE2D46-4185-42B3-AE1A-2A506BC847B7}" type="CELLRANGE">
+                    <a:fld id="{A726A2C9-D1B3-4BF9-9477-2C6B7B45E347}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1238,7 +1217,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B4B56CB3-46B4-40B6-9544-84A1E22AD1FE}" type="CELLRANGE">
+                    <a:fld id="{96CA6C0A-D2B2-4373-87F4-4E94E51A1E41}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1276,7 +1255,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{31B92259-F382-4025-B24B-7B3B49ED94D9}" type="CELLRANGE">
+                    <a:fld id="{C06002A6-186E-4DE6-BA1F-E0980161AB37}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1379,25 +1358,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>149653</c:v>
+                  <c:v>157500</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>147500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>147500</c:v>
+                  <c:v>131560</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>114008</c:v>
+                  <c:v>101029</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>111175</c:v>
+                  <c:v>100500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100500</c:v>
+                  <c:v>99500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>79200</c:v>
+                  <c:v>98301.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>79200</c:v>
@@ -1406,7 +1385,7 @@
                   <c:v>64800</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>111175</c:v>
+                  <c:v>50400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1418,34 +1397,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.2424242424242422</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.666666666666667</c:v>
+                  <c:v>8.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.1117647058823525</c:v>
+                  <c:v>3.9090909090909092</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.43010752688172</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.7777777777777777</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.2164948453608249</c:v>
+                  <c:v>3.4482758620689653</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0666666666666664</c:v>
+                  <c:v>6.416666666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.6842105263157894</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.4</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.1561969439728355</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1464,10 +1443,10 @@
                     <c:v>Senior Data Engineer</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Data Engineer</c:v>
+                    <c:v>Data Scientist</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Data Scientist</c:v>
+                    <c:v>Machine Learning Engineer</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>Senior Data Analyst</c:v>
@@ -1476,16 +1455,16 @@
                     <c:v>Data Analyst</c:v>
                   </c:pt>
                   <c:pt idx="6">
+                    <c:v>Data Engineer</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Business Analyst</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
                     <c:v>Software Engineer</c:v>
                   </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Machine Learning Engineer</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Business Analyst</c:v>
-                  </c:pt>
                   <c:pt idx="9">
-                    <c:v>Grand Total</c:v>
+                    <c:v>Cloud Engineer</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -1584,7 +1563,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-IN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1877,7 +1856,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-IN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2048,34 +2027,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>Spark</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Flow</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Python</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Excel</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tableau</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>AWS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>R</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>SQL</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Python</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NoSQL</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
+                  <c:v>Power BI</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Hadoop</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Spark</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Airflow</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Kafka</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Java</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Azure</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>AWS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2087,34 +2066,34 @@
                 <c:formatCode>\$#,##0;\(\$#,##0\);\$#,##0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>147500</c:v>
+                  <c:v>149653</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>147500</c:v>
+                  <c:v>105000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>147500</c:v>
+                  <c:v>102750</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>147500</c:v>
+                  <c:v>100500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>147500</c:v>
+                  <c:v>100500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>147500</c:v>
+                  <c:v>100500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>147500</c:v>
+                  <c:v>99500</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>147500</c:v>
+                  <c:v>98500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>140120.5</c:v>
+                  <c:v>90000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>115000</c:v>
+                  <c:v>75000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2187,34 +2166,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>Spark</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Flow</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Python</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Excel</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tableau</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>AWS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>R</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>SQL</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Python</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NoSQL</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
+                  <c:v>Power BI</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Hadoop</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Spark</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Airflow</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Kafka</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Java</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Azure</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>AWS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2226,34 +2205,34 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>114</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>99</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>84</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>57</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>52</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>60</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2406,7 +2385,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-IN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2499,6 +2478,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1999015984"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2686,7 +2666,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-IN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2851,34 +2831,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>Spark</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Flow</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Python</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Oracle</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>Excel</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Tableau</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Power BI</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>SQL</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>SAS</c:v>
+                  <c:v>AWS</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>R</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Powerpoint</c:v>
+                  <c:v>SQL</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Excel</c:v>
+                  <c:v>Power BI</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Word</c:v>
+                  <c:v>Hadoop</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2890,34 +2870,34 @@
                 <c:formatCode>\$#,##0;\(\$#,##0\);\$#,##0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>97086.5</c:v>
+                  <c:v>149653</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>96923.75</c:v>
+                  <c:v>105000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>92500</c:v>
+                  <c:v>102750</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>100500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98500</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>90000</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>90000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>90000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>90000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>85000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>84500</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>81682</c:v>
+                  <c:v>75000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2986,34 +2966,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>Spark</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Flow</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Python</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Oracle</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>Excel</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Tableau</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Power BI</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>SQL</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>SAS</c:v>
+                  <c:v>AWS</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>R</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Powerpoint</c:v>
+                  <c:v>SQL</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Excel</c:v>
+                  <c:v>Power BI</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Word</c:v>
+                  <c:v>Hadoop</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3025,34 +3005,34 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.27653195826837751</c:v>
+                  <c:v>0.17241379310344829</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.7873845784866285E-2</c:v>
+                  <c:v>0.10344827586206896</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28696486389255305</c:v>
+                  <c:v>0.44827586206896552</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1680057560858616</c:v>
+                  <c:v>0.27586206896551724</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.52500299796138628</c:v>
+                  <c:v>0.34482758620689657</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.18803213814606068</c:v>
+                  <c:v>0.17241379310344829</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.16033097493704282</c:v>
+                  <c:v>0.2413793103448276</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.653435663748651E-2</c:v>
+                  <c:v>0.58620689655172409</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.41455810049166569</c:v>
+                  <c:v>0.17241379310344829</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.10420913778630531</c:v>
+                  <c:v>0.10344827586206896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3205,7 +3185,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-IN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3357,6 +3337,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="893543376"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -5871,8 +5852,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="job_country 3">
@@ -5895,7 +5876,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -5954,8 +5935,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="job_country 1">
@@ -5978,7 +5959,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -6037,8 +6018,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="job_title_short 1">
@@ -6061,7 +6042,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -6115,8 +6096,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>20955</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="job_country 2">
@@ -6139,7 +6120,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -6234,8 +6215,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>36195</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="job_country 4">
@@ -6258,7 +6239,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -6312,8 +6293,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>20955</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="job_title_short 2">
@@ -6336,7 +6317,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -6417,21 +6398,21 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Swarnali" refreshedDate="45918.694010763887" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{4B6AF8E9-7F36-416E-A342-B679B3C8C782}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Swarnali" refreshedDate="45919.662357870373" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{4B6AF8E9-7F36-416E-A342-B679B3C8C782}">
   <cacheSource type="external" connectionId="3"/>
   <cacheFields count="5">
     <cacheField name="[data_jobs_skills].[job_skills].[job_skills]" caption="job_skills" numFmtId="0" hierarchy="22" level="1">
       <sharedItems count="10">
+        <s v="AWS"/>
         <s v="Excel"/>
-        <s v="Oracle"/>
+        <s v="Flow"/>
+        <s v="Hadoop"/>
         <s v="Power BI"/>
-        <s v="Powerpoint"/>
         <s v="Python"/>
         <s v="R"/>
-        <s v="SAS"/>
+        <s v="Spark"/>
         <s v="SQL"/>
         <s v="Tableau"/>
-        <s v="Word"/>
       </sharedItems>
     </cacheField>
     <cacheField name="[Measures].[Median Salary - Skills]" caption="Median Salary - Skills" numFmtId="0" hierarchy="32" level="32767"/>
@@ -6547,266 +6528,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Swarnali" refreshedDate="45918.697425578706" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{BE90EA66-4F59-4EA4-8B1F-22965C3C456B}">
-  <cacheSource type="external" connectionId="3"/>
-  <cacheFields count="4">
-    <cacheField name="[data_jobs_skills].[job_skills].[job_skills]" caption="job_skills" numFmtId="0" hierarchy="22" level="1">
-      <sharedItems count="10">
-        <s v="Airflow"/>
-        <s v="AWS"/>
-        <s v="Azure"/>
-        <s v="Hadoop"/>
-        <s v="Java"/>
-        <s v="Kafka"/>
-        <s v="NoSQL"/>
-        <s v="Python"/>
-        <s v="Spark"/>
-        <s v="SQL"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Measures].[Count of job_id]" caption="Count of job_id" numFmtId="0" hierarchy="24" level="32767"/>
-    <cacheField name="[data_jobs_skills].[job_title_short].[job_title_short]" caption="job_title_short" numFmtId="0" hierarchy="21" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[data_jobs_salary].[job_country].[job_country]" caption="job_country" numFmtId="0" hierarchy="13" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="37">
-    <cacheHierarchy uniqueName="[data_jobs_salary].[job_id]" caption="job_id" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[job_id].[All]" allUniqueName="[data_jobs_salary].[job_id].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[data_jobs_salary].[job_title_short]" caption="job_title_short" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[job_title_short].[All]" allUniqueName="[data_jobs_salary].[job_title_short].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[data_jobs_salary].[job_title]" caption="job_title" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[job_title].[All]" allUniqueName="[data_jobs_salary].[job_title].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[data_jobs_salary].[job_location]" caption="job_location" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[job_location].[All]" allUniqueName="[data_jobs_salary].[job_location].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[data_jobs_salary].[job_via]" caption="job_via" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[job_via].[All]" allUniqueName="[data_jobs_salary].[job_via].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[data_jobs_salary].[job_schedule_type]" caption="job_schedule_type" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[job_schedule_type].[All]" allUniqueName="[data_jobs_salary].[job_schedule_type].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[data_jobs_salary].[job_work_from_home]" caption="job_work_from_home" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[job_work_from_home].[All]" allUniqueName="[data_jobs_salary].[job_work_from_home].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="11" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[data_jobs_salary].[search_location]" caption="search_location" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[search_location].[All]" allUniqueName="[data_jobs_salary].[search_location].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[data_jobs_salary].[job_posted_datetime]" caption="job_posted_datetime" attribute="1" time="1" defaultMemberUniqueName="[data_jobs_salary].[job_posted_datetime].[All]" allUniqueName="[data_jobs_salary].[job_posted_datetime].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[data_jobs_salary].[job_posted_date]" caption="job_posted_date" attribute="1" time="1" defaultMemberUniqueName="[data_jobs_salary].[job_posted_date].[All]" allUniqueName="[data_jobs_salary].[job_posted_date].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[data_jobs_salary].[job_posted_month]" caption="job_posted_month" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[job_posted_month].[All]" allUniqueName="[data_jobs_salary].[job_posted_month].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[data_jobs_salary].[job_no_degree_mention]" caption="job_no_degree_mention" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[job_no_degree_mention].[All]" allUniqueName="[data_jobs_salary].[job_no_degree_mention].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="11" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[data_jobs_salary].[job_health_insurance]" caption="job_health_insurance" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[job_health_insurance].[All]" allUniqueName="[data_jobs_salary].[job_health_insurance].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="11" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[data_jobs_salary].[job_country]" caption="job_country" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[job_country].[All]" allUniqueName="[data_jobs_salary].[job_country].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="3"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[data_jobs_salary].[salary_rate]" caption="salary_rate" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[salary_rate].[All]" allUniqueName="[data_jobs_salary].[salary_rate].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[data_jobs_salary].[salary_year_avg]" caption="salary_year_avg" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[salary_year_avg].[All]" allUniqueName="[data_jobs_salary].[salary_year_avg].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="6" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[data_jobs_salary].[salary_hour_avg]" caption="salary_hour_avg" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[salary_hour_avg].[All]" allUniqueName="[data_jobs_salary].[salary_hour_avg].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="6" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[data_jobs_salary].[salary_hour_adjusted]" caption="salary_hour_adjusted" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[salary_hour_adjusted].[All]" allUniqueName="[data_jobs_salary].[salary_hour_adjusted].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="6" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[data_jobs_salary].[company_name]" caption="company_name" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[company_name].[All]" allUniqueName="[data_jobs_salary].[company_name].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[data_jobs_salary].[job_skills]" caption="job_skills" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[job_skills].[All]" allUniqueName="[data_jobs_salary].[job_skills].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[data_jobs_skills].[job_id]" caption="job_id" attribute="1" defaultMemberUniqueName="[data_jobs_skills].[job_id].[All]" allUniqueName="[data_jobs_skills].[job_id].[All]" dimensionUniqueName="[data_jobs_skills]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[data_jobs_skills].[job_title_short]" caption="job_title_short" attribute="1" defaultMemberUniqueName="[data_jobs_skills].[job_title_short].[All]" allUniqueName="[data_jobs_skills].[job_title_short].[All]" dimensionUniqueName="[data_jobs_skills]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[data_jobs_skills].[job_skills]" caption="job_skills" attribute="1" defaultMemberUniqueName="[data_jobs_skills].[job_skills].[All]" allUniqueName="[data_jobs_skills].[job_skills].[All]" dimensionUniqueName="[data_jobs_skills]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of job_id]" caption="Sum of job_id" measure="1" displayFolder="" measureGroup="data_jobs_skills" count="0">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="20"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Count of job_id]" caption="Count of job_id" measure="1" displayFolder="" measureGroup="data_jobs_skills" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="20"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Count of job_skills]" caption="Count of job_skills" measure="1" displayFolder="" measureGroup="data_jobs_skills" count="0">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="22"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Skill Count]" caption="Skill Count" measure="1" displayFolder="" measureGroup="data_jobs_skills" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Job Count]" caption="Job Count" measure="1" displayFolder="" measureGroup="data_jobs_salary" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Skills Per Job]" caption="Skills Per Job" measure="1" displayFolder="" measureGroup="data_jobs_skills" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Median Salary]" caption="Median Salary" measure="1" displayFolder="" measureGroup="data_jobs_salary" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Median Salary US]" caption="Median Salary US" measure="1" displayFolder="" measureGroup="data_jobs_salary" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Median Salary Non-US]" caption="Median Salary Non-US" measure="1" displayFolder="" measureGroup="data_jobs_salary" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Median Salary - Skills]" caption="Median Salary - Skills" measure="1" displayFolder="" measureGroup="data_jobs_skills" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Skill Likelihood]" caption="Skill Likelihood" measure="1" displayFolder="" measureGroup="data_jobs_skills" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[__XL_Count data_jobs_salary]" caption="__XL_Count data_jobs_salary" measure="1" displayFolder="" measureGroup="data_jobs_salary" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__XL_Count data_jobs_skills]" caption="__XL_Count data_jobs_skills" measure="1" displayFolder="" measureGroup="data_jobs_skills" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="3">
-    <dimension name="data_jobs_salary" uniqueName="[data_jobs_salary]" caption="data_jobs_salary"/>
-    <dimension name="data_jobs_skills" uniqueName="[data_jobs_skills]" caption="data_jobs_skills"/>
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-  </dimensions>
-  <measureGroups count="2">
-    <measureGroup name="data_jobs_salary" caption="data_jobs_salary"/>
-    <measureGroup name="data_jobs_skills" caption="data_jobs_skills"/>
-  </measureGroups>
-  <maps count="3">
-    <map measureGroup="0" dimension="0"/>
-    <map measureGroup="1" dimension="0"/>
-    <map measureGroup="1" dimension="1"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Swarnali" refreshedDate="45918.697426620369" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{870FF239-109D-452A-B39D-D9694760BAB5}">
-  <cacheSource type="external" connectionId="3"/>
-  <cacheFields count="5">
-    <cacheField name="[data_jobs_skills].[job_skills].[job_skills]" caption="job_skills" numFmtId="0" hierarchy="22" level="1">
-      <sharedItems count="10">
-        <s v="Airflow"/>
-        <s v="AWS"/>
-        <s v="Azure"/>
-        <s v="Hadoop"/>
-        <s v="Java"/>
-        <s v="Kafka"/>
-        <s v="NoSQL"/>
-        <s v="Python"/>
-        <s v="Spark"/>
-        <s v="SQL"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Measures].[Median Salary - Skills]" caption="Median Salary - Skills" numFmtId="0" hierarchy="32" level="32767"/>
-    <cacheField name="[Measures].[Skill Count]" caption="Skill Count" numFmtId="0" hierarchy="26" level="32767"/>
-    <cacheField name="[data_jobs_skills].[job_title_short].[job_title_short]" caption="job_title_short" numFmtId="0" hierarchy="21" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[data_jobs_salary].[job_country].[job_country]" caption="job_country" numFmtId="0" hierarchy="13" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="37">
-    <cacheHierarchy uniqueName="[data_jobs_salary].[job_id]" caption="job_id" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[job_id].[All]" allUniqueName="[data_jobs_salary].[job_id].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[data_jobs_salary].[job_title_short]" caption="job_title_short" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[job_title_short].[All]" allUniqueName="[data_jobs_salary].[job_title_short].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[data_jobs_salary].[job_title]" caption="job_title" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[job_title].[All]" allUniqueName="[data_jobs_salary].[job_title].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[data_jobs_salary].[job_location]" caption="job_location" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[job_location].[All]" allUniqueName="[data_jobs_salary].[job_location].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[data_jobs_salary].[job_via]" caption="job_via" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[job_via].[All]" allUniqueName="[data_jobs_salary].[job_via].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[data_jobs_salary].[job_schedule_type]" caption="job_schedule_type" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[job_schedule_type].[All]" allUniqueName="[data_jobs_salary].[job_schedule_type].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[data_jobs_salary].[job_work_from_home]" caption="job_work_from_home" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[job_work_from_home].[All]" allUniqueName="[data_jobs_salary].[job_work_from_home].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="11" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[data_jobs_salary].[search_location]" caption="search_location" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[search_location].[All]" allUniqueName="[data_jobs_salary].[search_location].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[data_jobs_salary].[job_posted_datetime]" caption="job_posted_datetime" attribute="1" time="1" defaultMemberUniqueName="[data_jobs_salary].[job_posted_datetime].[All]" allUniqueName="[data_jobs_salary].[job_posted_datetime].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[data_jobs_salary].[job_posted_date]" caption="job_posted_date" attribute="1" time="1" defaultMemberUniqueName="[data_jobs_salary].[job_posted_date].[All]" allUniqueName="[data_jobs_salary].[job_posted_date].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[data_jobs_salary].[job_posted_month]" caption="job_posted_month" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[job_posted_month].[All]" allUniqueName="[data_jobs_salary].[job_posted_month].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[data_jobs_salary].[job_no_degree_mention]" caption="job_no_degree_mention" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[job_no_degree_mention].[All]" allUniqueName="[data_jobs_salary].[job_no_degree_mention].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="11" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[data_jobs_salary].[job_health_insurance]" caption="job_health_insurance" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[job_health_insurance].[All]" allUniqueName="[data_jobs_salary].[job_health_insurance].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="11" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[data_jobs_salary].[job_country]" caption="job_country" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[job_country].[All]" allUniqueName="[data_jobs_salary].[job_country].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="4"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[data_jobs_salary].[salary_rate]" caption="salary_rate" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[salary_rate].[All]" allUniqueName="[data_jobs_salary].[salary_rate].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[data_jobs_salary].[salary_year_avg]" caption="salary_year_avg" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[salary_year_avg].[All]" allUniqueName="[data_jobs_salary].[salary_year_avg].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="6" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[data_jobs_salary].[salary_hour_avg]" caption="salary_hour_avg" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[salary_hour_avg].[All]" allUniqueName="[data_jobs_salary].[salary_hour_avg].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="6" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[data_jobs_salary].[salary_hour_adjusted]" caption="salary_hour_adjusted" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[salary_hour_adjusted].[All]" allUniqueName="[data_jobs_salary].[salary_hour_adjusted].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="6" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[data_jobs_salary].[company_name]" caption="company_name" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[company_name].[All]" allUniqueName="[data_jobs_salary].[company_name].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[data_jobs_salary].[job_skills]" caption="job_skills" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[job_skills].[All]" allUniqueName="[data_jobs_salary].[job_skills].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[data_jobs_skills].[job_id]" caption="job_id" attribute="1" defaultMemberUniqueName="[data_jobs_skills].[job_id].[All]" allUniqueName="[data_jobs_skills].[job_id].[All]" dimensionUniqueName="[data_jobs_skills]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[data_jobs_skills].[job_title_short]" caption="job_title_short" attribute="1" defaultMemberUniqueName="[data_jobs_skills].[job_title_short].[All]" allUniqueName="[data_jobs_skills].[job_title_short].[All]" dimensionUniqueName="[data_jobs_skills]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="3"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[data_jobs_skills].[job_skills]" caption="job_skills" attribute="1" defaultMemberUniqueName="[data_jobs_skills].[job_skills].[All]" allUniqueName="[data_jobs_skills].[job_skills].[All]" dimensionUniqueName="[data_jobs_skills]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of job_id]" caption="Sum of job_id" measure="1" displayFolder="" measureGroup="data_jobs_skills" count="0">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="20"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Count of job_id]" caption="Count of job_id" measure="1" displayFolder="" measureGroup="data_jobs_skills" count="0">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="20"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Count of job_skills]" caption="Count of job_skills" measure="1" displayFolder="" measureGroup="data_jobs_skills" count="0">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="22"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Skill Count]" caption="Skill Count" measure="1" displayFolder="" measureGroup="data_jobs_skills" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="2"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Job Count]" caption="Job Count" measure="1" displayFolder="" measureGroup="data_jobs_salary" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Skills Per Job]" caption="Skills Per Job" measure="1" displayFolder="" measureGroup="data_jobs_skills" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Median Salary]" caption="Median Salary" measure="1" displayFolder="" measureGroup="data_jobs_salary" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Median Salary US]" caption="Median Salary US" measure="1" displayFolder="" measureGroup="data_jobs_salary" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Median Salary Non-US]" caption="Median Salary Non-US" measure="1" displayFolder="" measureGroup="data_jobs_salary" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Median Salary - Skills]" caption="Median Salary - Skills" measure="1" displayFolder="" measureGroup="data_jobs_skills" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Skill Likelihood]" caption="Skill Likelihood" measure="1" displayFolder="" measureGroup="data_jobs_skills" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[__XL_Count data_jobs_salary]" caption="__XL_Count data_jobs_salary" measure="1" displayFolder="" measureGroup="data_jobs_salary" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__XL_Count data_jobs_skills]" caption="__XL_Count data_jobs_skills" measure="1" displayFolder="" measureGroup="data_jobs_skills" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="3">
-    <dimension name="data_jobs_salary" uniqueName="[data_jobs_salary]" caption="data_jobs_salary"/>
-    <dimension name="data_jobs_skills" uniqueName="[data_jobs_skills]" caption="data_jobs_skills"/>
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-  </dimensions>
-  <measureGroups count="2">
-    <measureGroup name="data_jobs_salary" caption="data_jobs_salary"/>
-    <measureGroup name="data_jobs_skills" caption="data_jobs_skills"/>
-  </measureGroups>
-  <maps count="3">
-    <map measureGroup="0" dimension="0"/>
-    <map measureGroup="1" dimension="0"/>
-    <map measureGroup="1" dimension="1"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Swarnali" refreshedDate="45918.6974275463" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D15C30E9-1A15-4888-8798-CC107B3BD088}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Swarnali" refreshedDate="45919.665762962963" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D15C30E9-1A15-4888-8798-CC107B3BD088}">
   <cacheSource type="external" connectionId="3"/>
   <cacheFields count="5">
     <cacheField name="[data_jobs_salary].[job_title_short].[job_title_short]" caption="job_title_short" numFmtId="0" hierarchy="1" level="1">
-      <sharedItems count="9">
+      <sharedItems count="10">
         <s v="Business Analyst"/>
+        <s v="Cloud Engineer"/>
         <s v="Data Analyst"/>
         <s v="Data Engineer"/>
         <s v="Data Scientist"/>
@@ -6926,13 +6654,14 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Swarnali" refreshedDate="45918.697428009262" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{BECB60CC-2740-40D1-98FB-BA739E890933}">
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Swarnali" refreshedDate="45919.665763425925" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{BECB60CC-2740-40D1-98FB-BA739E890933}">
   <cacheSource type="external" connectionId="3"/>
   <cacheFields count="4">
     <cacheField name="[data_jobs_salary].[job_title_short].[job_title_short]" caption="job_title_short" numFmtId="0" hierarchy="1" level="1">
-      <sharedItems count="9">
+      <sharedItems count="10">
         <s v="Business Analyst"/>
+        <s v="Cloud Engineer"/>
         <s v="Data Analyst"/>
         <s v="Data Engineer"/>
         <s v="Data Scientist"/>
@@ -7019,6 +6748,260 @@
     <cacheHierarchy uniqueName="[Measures].[Median Salary US]" caption="Median Salary US" measure="1" displayFolder="" measureGroup="data_jobs_salary" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Median Salary Non-US]" caption="Median Salary Non-US" measure="1" displayFolder="" measureGroup="data_jobs_salary" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Median Salary - Skills]" caption="Median Salary - Skills" measure="1" displayFolder="" measureGroup="data_jobs_skills" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Skill Likelihood]" caption="Skill Likelihood" measure="1" displayFolder="" measureGroup="data_jobs_skills" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count data_jobs_salary]" caption="__XL_Count data_jobs_salary" measure="1" displayFolder="" measureGroup="data_jobs_salary" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count data_jobs_skills]" caption="__XL_Count data_jobs_skills" measure="1" displayFolder="" measureGroup="data_jobs_skills" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="3">
+    <dimension name="data_jobs_salary" uniqueName="[data_jobs_salary]" caption="data_jobs_salary"/>
+    <dimension name="data_jobs_skills" uniqueName="[data_jobs_skills]" caption="data_jobs_skills"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+  </dimensions>
+  <measureGroups count="2">
+    <measureGroup name="data_jobs_salary" caption="data_jobs_salary"/>
+    <measureGroup name="data_jobs_skills" caption="data_jobs_skills"/>
+  </measureGroups>
+  <maps count="3">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="1" dimension="0"/>
+    <map measureGroup="1" dimension="1"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Swarnali" refreshedDate="45919.668863888888" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{BE90EA66-4F59-4EA4-8B1F-22965C3C456B}">
+  <cacheSource type="external" connectionId="3"/>
+  <cacheFields count="4">
+    <cacheField name="[data_jobs_skills].[job_skills].[job_skills]" caption="job_skills" numFmtId="0" hierarchy="22" level="1">
+      <sharedItems count="10">
+        <s v="AWS"/>
+        <s v="Excel"/>
+        <s v="Flow"/>
+        <s v="Hadoop"/>
+        <s v="Power BI"/>
+        <s v="Python"/>
+        <s v="R"/>
+        <s v="Spark"/>
+        <s v="SQL"/>
+        <s v="Tableau"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Measures].[Count of job_id]" caption="Count of job_id" numFmtId="0" hierarchy="24" level="32767"/>
+    <cacheField name="[data_jobs_skills].[job_title_short].[job_title_short]" caption="job_title_short" numFmtId="0" hierarchy="21" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[data_jobs_salary].[job_country].[job_country]" caption="job_country" numFmtId="0" hierarchy="13" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="37">
+    <cacheHierarchy uniqueName="[data_jobs_salary].[job_id]" caption="job_id" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[job_id].[All]" allUniqueName="[data_jobs_salary].[job_id].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data_jobs_salary].[job_title_short]" caption="job_title_short" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[job_title_short].[All]" allUniqueName="[data_jobs_salary].[job_title_short].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data_jobs_salary].[job_title]" caption="job_title" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[job_title].[All]" allUniqueName="[data_jobs_salary].[job_title].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data_jobs_salary].[job_location]" caption="job_location" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[job_location].[All]" allUniqueName="[data_jobs_salary].[job_location].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data_jobs_salary].[job_via]" caption="job_via" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[job_via].[All]" allUniqueName="[data_jobs_salary].[job_via].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data_jobs_salary].[job_schedule_type]" caption="job_schedule_type" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[job_schedule_type].[All]" allUniqueName="[data_jobs_salary].[job_schedule_type].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data_jobs_salary].[job_work_from_home]" caption="job_work_from_home" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[job_work_from_home].[All]" allUniqueName="[data_jobs_salary].[job_work_from_home].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="11" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data_jobs_salary].[search_location]" caption="search_location" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[search_location].[All]" allUniqueName="[data_jobs_salary].[search_location].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data_jobs_salary].[job_posted_datetime]" caption="job_posted_datetime" attribute="1" time="1" defaultMemberUniqueName="[data_jobs_salary].[job_posted_datetime].[All]" allUniqueName="[data_jobs_salary].[job_posted_datetime].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data_jobs_salary].[job_posted_date]" caption="job_posted_date" attribute="1" time="1" defaultMemberUniqueName="[data_jobs_salary].[job_posted_date].[All]" allUniqueName="[data_jobs_salary].[job_posted_date].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data_jobs_salary].[job_posted_month]" caption="job_posted_month" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[job_posted_month].[All]" allUniqueName="[data_jobs_salary].[job_posted_month].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data_jobs_salary].[job_no_degree_mention]" caption="job_no_degree_mention" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[job_no_degree_mention].[All]" allUniqueName="[data_jobs_salary].[job_no_degree_mention].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="11" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data_jobs_salary].[job_health_insurance]" caption="job_health_insurance" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[job_health_insurance].[All]" allUniqueName="[data_jobs_salary].[job_health_insurance].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="11" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data_jobs_salary].[job_country]" caption="job_country" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[job_country].[All]" allUniqueName="[data_jobs_salary].[job_country].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[data_jobs_salary].[salary_rate]" caption="salary_rate" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[salary_rate].[All]" allUniqueName="[data_jobs_salary].[salary_rate].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data_jobs_salary].[salary_year_avg]" caption="salary_year_avg" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[salary_year_avg].[All]" allUniqueName="[data_jobs_salary].[salary_year_avg].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="6" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data_jobs_salary].[salary_hour_avg]" caption="salary_hour_avg" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[salary_hour_avg].[All]" allUniqueName="[data_jobs_salary].[salary_hour_avg].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="6" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data_jobs_salary].[salary_hour_adjusted]" caption="salary_hour_adjusted" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[salary_hour_adjusted].[All]" allUniqueName="[data_jobs_salary].[salary_hour_adjusted].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="6" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data_jobs_salary].[company_name]" caption="company_name" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[company_name].[All]" allUniqueName="[data_jobs_salary].[company_name].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data_jobs_salary].[job_skills]" caption="job_skills" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[job_skills].[All]" allUniqueName="[data_jobs_salary].[job_skills].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data_jobs_skills].[job_id]" caption="job_id" attribute="1" defaultMemberUniqueName="[data_jobs_skills].[job_id].[All]" allUniqueName="[data_jobs_skills].[job_id].[All]" dimensionUniqueName="[data_jobs_skills]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data_jobs_skills].[job_title_short]" caption="job_title_short" attribute="1" defaultMemberUniqueName="[data_jobs_skills].[job_title_short].[All]" allUniqueName="[data_jobs_skills].[job_title_short].[All]" dimensionUniqueName="[data_jobs_skills]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[data_jobs_skills].[job_skills]" caption="job_skills" attribute="1" defaultMemberUniqueName="[data_jobs_skills].[job_skills].[All]" allUniqueName="[data_jobs_skills].[job_skills].[All]" dimensionUniqueName="[data_jobs_skills]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of job_id]" caption="Sum of job_id" measure="1" displayFolder="" measureGroup="data_jobs_skills" count="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="20"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of job_id]" caption="Count of job_id" measure="1" displayFolder="" measureGroup="data_jobs_skills" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="20"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of job_skills]" caption="Count of job_skills" measure="1" displayFolder="" measureGroup="data_jobs_skills" count="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="22"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Skill Count]" caption="Skill Count" measure="1" displayFolder="" measureGroup="data_jobs_skills" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Job Count]" caption="Job Count" measure="1" displayFolder="" measureGroup="data_jobs_salary" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Skills Per Job]" caption="Skills Per Job" measure="1" displayFolder="" measureGroup="data_jobs_skills" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Median Salary]" caption="Median Salary" measure="1" displayFolder="" measureGroup="data_jobs_salary" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Median Salary US]" caption="Median Salary US" measure="1" displayFolder="" measureGroup="data_jobs_salary" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Median Salary Non-US]" caption="Median Salary Non-US" measure="1" displayFolder="" measureGroup="data_jobs_salary" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Median Salary - Skills]" caption="Median Salary - Skills" measure="1" displayFolder="" measureGroup="data_jobs_skills" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Skill Likelihood]" caption="Skill Likelihood" measure="1" displayFolder="" measureGroup="data_jobs_skills" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count data_jobs_salary]" caption="__XL_Count data_jobs_salary" measure="1" displayFolder="" measureGroup="data_jobs_salary" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count data_jobs_skills]" caption="__XL_Count data_jobs_skills" measure="1" displayFolder="" measureGroup="data_jobs_skills" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="3">
+    <dimension name="data_jobs_salary" uniqueName="[data_jobs_salary]" caption="data_jobs_salary"/>
+    <dimension name="data_jobs_skills" uniqueName="[data_jobs_skills]" caption="data_jobs_skills"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+  </dimensions>
+  <measureGroups count="2">
+    <measureGroup name="data_jobs_salary" caption="data_jobs_salary"/>
+    <measureGroup name="data_jobs_skills" caption="data_jobs_skills"/>
+  </measureGroups>
+  <maps count="3">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="1" dimension="0"/>
+    <map measureGroup="1" dimension="1"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Swarnali" refreshedDate="45919.66886435185" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{870FF239-109D-452A-B39D-D9694760BAB5}">
+  <cacheSource type="external" connectionId="3"/>
+  <cacheFields count="5">
+    <cacheField name="[data_jobs_skills].[job_skills].[job_skills]" caption="job_skills" numFmtId="0" hierarchy="22" level="1">
+      <sharedItems count="10">
+        <s v="AWS"/>
+        <s v="Excel"/>
+        <s v="Flow"/>
+        <s v="Hadoop"/>
+        <s v="Power BI"/>
+        <s v="Python"/>
+        <s v="R"/>
+        <s v="Spark"/>
+        <s v="SQL"/>
+        <s v="Tableau"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Measures].[Median Salary - Skills]" caption="Median Salary - Skills" numFmtId="0" hierarchy="32" level="32767"/>
+    <cacheField name="[Measures].[Skill Count]" caption="Skill Count" numFmtId="0" hierarchy="26" level="32767"/>
+    <cacheField name="[data_jobs_skills].[job_title_short].[job_title_short]" caption="job_title_short" numFmtId="0" hierarchy="21" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[data_jobs_salary].[job_country].[job_country]" caption="job_country" numFmtId="0" hierarchy="13" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="37">
+    <cacheHierarchy uniqueName="[data_jobs_salary].[job_id]" caption="job_id" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[job_id].[All]" allUniqueName="[data_jobs_salary].[job_id].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data_jobs_salary].[job_title_short]" caption="job_title_short" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[job_title_short].[All]" allUniqueName="[data_jobs_salary].[job_title_short].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data_jobs_salary].[job_title]" caption="job_title" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[job_title].[All]" allUniqueName="[data_jobs_salary].[job_title].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data_jobs_salary].[job_location]" caption="job_location" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[job_location].[All]" allUniqueName="[data_jobs_salary].[job_location].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data_jobs_salary].[job_via]" caption="job_via" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[job_via].[All]" allUniqueName="[data_jobs_salary].[job_via].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data_jobs_salary].[job_schedule_type]" caption="job_schedule_type" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[job_schedule_type].[All]" allUniqueName="[data_jobs_salary].[job_schedule_type].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data_jobs_salary].[job_work_from_home]" caption="job_work_from_home" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[job_work_from_home].[All]" allUniqueName="[data_jobs_salary].[job_work_from_home].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="11" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data_jobs_salary].[search_location]" caption="search_location" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[search_location].[All]" allUniqueName="[data_jobs_salary].[search_location].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data_jobs_salary].[job_posted_datetime]" caption="job_posted_datetime" attribute="1" time="1" defaultMemberUniqueName="[data_jobs_salary].[job_posted_datetime].[All]" allUniqueName="[data_jobs_salary].[job_posted_datetime].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data_jobs_salary].[job_posted_date]" caption="job_posted_date" attribute="1" time="1" defaultMemberUniqueName="[data_jobs_salary].[job_posted_date].[All]" allUniqueName="[data_jobs_salary].[job_posted_date].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data_jobs_salary].[job_posted_month]" caption="job_posted_month" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[job_posted_month].[All]" allUniqueName="[data_jobs_salary].[job_posted_month].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data_jobs_salary].[job_no_degree_mention]" caption="job_no_degree_mention" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[job_no_degree_mention].[All]" allUniqueName="[data_jobs_salary].[job_no_degree_mention].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="11" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data_jobs_salary].[job_health_insurance]" caption="job_health_insurance" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[job_health_insurance].[All]" allUniqueName="[data_jobs_salary].[job_health_insurance].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="11" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data_jobs_salary].[job_country]" caption="job_country" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[job_country].[All]" allUniqueName="[data_jobs_salary].[job_country].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="4"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[data_jobs_salary].[salary_rate]" caption="salary_rate" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[salary_rate].[All]" allUniqueName="[data_jobs_salary].[salary_rate].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data_jobs_salary].[salary_year_avg]" caption="salary_year_avg" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[salary_year_avg].[All]" allUniqueName="[data_jobs_salary].[salary_year_avg].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="6" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data_jobs_salary].[salary_hour_avg]" caption="salary_hour_avg" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[salary_hour_avg].[All]" allUniqueName="[data_jobs_salary].[salary_hour_avg].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="6" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data_jobs_salary].[salary_hour_adjusted]" caption="salary_hour_adjusted" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[salary_hour_adjusted].[All]" allUniqueName="[data_jobs_salary].[salary_hour_adjusted].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="6" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data_jobs_salary].[company_name]" caption="company_name" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[company_name].[All]" allUniqueName="[data_jobs_salary].[company_name].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data_jobs_salary].[job_skills]" caption="job_skills" attribute="1" defaultMemberUniqueName="[data_jobs_salary].[job_skills].[All]" allUniqueName="[data_jobs_salary].[job_skills].[All]" dimensionUniqueName="[data_jobs_salary]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data_jobs_skills].[job_id]" caption="job_id" attribute="1" defaultMemberUniqueName="[data_jobs_skills].[job_id].[All]" allUniqueName="[data_jobs_skills].[job_id].[All]" dimensionUniqueName="[data_jobs_skills]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[data_jobs_skills].[job_title_short]" caption="job_title_short" attribute="1" defaultMemberUniqueName="[data_jobs_skills].[job_title_short].[All]" allUniqueName="[data_jobs_skills].[job_title_short].[All]" dimensionUniqueName="[data_jobs_skills]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[data_jobs_skills].[job_skills]" caption="job_skills" attribute="1" defaultMemberUniqueName="[data_jobs_skills].[job_skills].[All]" allUniqueName="[data_jobs_skills].[job_skills].[All]" dimensionUniqueName="[data_jobs_skills]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of job_id]" caption="Sum of job_id" measure="1" displayFolder="" measureGroup="data_jobs_skills" count="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="20"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of job_id]" caption="Count of job_id" measure="1" displayFolder="" measureGroup="data_jobs_skills" count="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="20"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of job_skills]" caption="Count of job_skills" measure="1" displayFolder="" measureGroup="data_jobs_skills" count="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="22"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Skill Count]" caption="Skill Count" measure="1" displayFolder="" measureGroup="data_jobs_skills" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Job Count]" caption="Job Count" measure="1" displayFolder="" measureGroup="data_jobs_salary" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Skills Per Job]" caption="Skills Per Job" measure="1" displayFolder="" measureGroup="data_jobs_skills" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Median Salary]" caption="Median Salary" measure="1" displayFolder="" measureGroup="data_jobs_salary" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Median Salary US]" caption="Median Salary US" measure="1" displayFolder="" measureGroup="data_jobs_salary" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Median Salary Non-US]" caption="Median Salary Non-US" measure="1" displayFolder="" measureGroup="data_jobs_salary" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Median Salary - Skills]" caption="Median Salary - Skills" measure="1" displayFolder="" measureGroup="data_jobs_skills" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Skill Likelihood]" caption="Skill Likelihood" measure="1" displayFolder="" measureGroup="data_jobs_skills" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[__XL_Count data_jobs_salary]" caption="__XL_Count data_jobs_salary" measure="1" displayFolder="" measureGroup="data_jobs_salary" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[__XL_Count data_jobs_skills]" caption="__XL_Count data_jobs_skills" measure="1" displayFolder="" measureGroup="data_jobs_skills" count="0" hidden="1"/>
@@ -7195,7 +7178,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C97BB053-9F97-4EE1-B144-1E6F21C13214}" name="PivotTable1" cacheId="726" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C97BB053-9F97-4EE1-B144-1E6F21C13214}" name="PivotTable1" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A2:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" measureFilter="1" sortType="ascending" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -7230,13 +7213,7 @@
   </rowFields>
   <rowItems count="11">
     <i>
-      <x/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
+      <x v="3"/>
     </i>
     <i>
       <x v="2"/>
@@ -7245,19 +7222,25 @@
       <x v="4"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="7"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="6"/>
     </i>
     <i>
       <x v="1"/>
     </i>
     <i>
-      <x v="8"/>
+      <x v="9"/>
     </i>
     <i>
-      <x v="7"/>
+      <x v="5"/>
     </i>
     <i>
-      <x v="9"/>
+      <x v="8"/>
     </i>
     <i t="grand">
       <x/>
@@ -7296,7 +7279,7 @@
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
       <members count="1" level="1">
-        <member name="[data_jobs_salary].[job_country].&amp;[India]"/>
+        <member name="[data_jobs_salary].[job_country].&amp;[Singapore]"/>
       </members>
     </pivotHierarchy>
     <pivotHierarchy dragToData="1"/>
@@ -7308,7 +7291,7 @@
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
       <members count="1" level="1">
-        <member name="[data_jobs_skills].[job_title_short].&amp;[Data Engineer]"/>
+        <member name="[data_jobs_skills].[job_title_short].&amp;[Data Analyst]"/>
       </members>
     </pivotHierarchy>
     <pivotHierarchy dragToData="1"/>
@@ -7358,11 +7341,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C3A7FF18-F812-48CA-BB3F-B9D65104D0F9}" name="PivotTable1" cacheId="735" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C3A7FF18-F812-48CA-BB3F-B9D65104D0F9}" name="PivotTable1" cacheId="51" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:C12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="descending" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="9">
+      <items count="10">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -7372,6 +7355,7 @@
         <item x="6"/>
         <item x="7"/>
         <item x="8"/>
+        <item x="9"/>
       </items>
       <autoSortScope>
         <pivotArea dataOnly="0" outline="0" fieldPosition="0">
@@ -7390,9 +7374,18 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="10">
+  <rowItems count="11">
+    <i>
+      <x v="8"/>
+    </i>
     <i>
       <x v="7"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
     </i>
     <i>
       <x v="6"/>
@@ -7404,19 +7397,13 @@
       <x v="3"/>
     </i>
     <i>
-      <x v="5"/>
+      <x/>
+    </i>
+    <i>
+      <x v="9"/>
     </i>
     <i>
       <x v="1"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x/>
     </i>
     <i t="grand">
       <x/>
@@ -7453,7 +7440,7 @@
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
       <members count="1" level="1">
-        <member name="[data_jobs_salary].[job_country].&amp;[India]"/>
+        <member name="[data_jobs_salary].[job_country].&amp;[Singapore]"/>
       </members>
     </pivotHierarchy>
     <pivotHierarchy dragToData="1"/>
@@ -7505,11 +7492,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A125CF8B-9357-4D38-8AC7-CB3B476F3B27}" name="PivotTable2" cacheId="732" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:D11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A125CF8B-9357-4D38-8AC7-CB3B476F3B27}" name="PivotTable2" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:D12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="9">
+      <items count="10">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -7519,6 +7506,7 @@
         <item x="6"/>
         <item x="7"/>
         <item x="8"/>
+        <item x="9"/>
       </items>
     </pivotField>
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -7529,7 +7517,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="10">
+  <rowItems count="11">
     <i>
       <x/>
     </i>
@@ -7557,6 +7545,9 @@
     <i>
       <x v="8"/>
     </i>
+    <i>
+      <x v="9"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -7596,7 +7587,7 @@
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
       <members count="1" level="1">
-        <member name="[data_jobs_salary].[job_country].&amp;[India]"/>
+        <member name="[data_jobs_salary].[job_country].&amp;[Singapore]"/>
       </members>
     </pivotHierarchy>
     <pivotHierarchy dragToData="1"/>
@@ -7647,7 +7638,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A5FEE6C2-C923-44E1-9577-589F4CC46AF7}" name="PivotTable3" cacheId="729" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A5FEE6C2-C923-44E1-9577-589F4CC46AF7}" name="PivotTable3" cacheId="57" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A1:C12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" measureFilter="1" sortType="descending" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -7683,34 +7674,34 @@
   </rowFields>
   <rowItems count="11">
     <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
       <x v="9"/>
     </i>
     <i>
-      <x v="7"/>
+      <x/>
     </i>
     <i>
       <x v="6"/>
     </i>
     <i>
-      <x v="3"/>
-    </i>
-    <i>
       <x v="8"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="5"/>
     </i>
     <i>
       <x v="4"/>
     </i>
     <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="1"/>
+      <x v="3"/>
     </i>
     <i t="grand">
       <x/>
@@ -7767,7 +7758,7 @@
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
       <members count="1" level="1">
-        <member name="[data_jobs_salary].[job_country].&amp;[India]"/>
+        <member name="[data_jobs_salary].[job_country].&amp;[Singapore]"/>
       </members>
     </pivotHierarchy>
     <pivotHierarchy dragToData="1"/>
@@ -7779,7 +7770,7 @@
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
       <members count="1" level="1">
-        <member name="[data_jobs_skills].[job_title_short].&amp;[Data Engineer]"/>
+        <member name="[data_jobs_skills].[job_title_short].&amp;[Data Analyst]"/>
       </members>
     </pivotHierarchy>
     <pivotHierarchy dragToData="1"/>
@@ -7832,7 +7823,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EF9D7562-EA30-48CF-93C0-A82657B5BA57}" name="PivotTable4" cacheId="711" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EF9D7562-EA30-48CF-93C0-A82657B5BA57}" name="PivotTable4" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A1:C12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" measureFilter="1" sortType="descending" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -7868,34 +7859,34 @@
   </rowFields>
   <rowItems count="11">
     <i>
-      <x v="4"/>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="5"/>
     </i>
     <i>
       <x v="1"/>
     </i>
     <i>
-      <x v="8"/>
+      <x v="9"/>
     </i>
     <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="7"/>
+      <x/>
     </i>
     <i>
       <x v="6"/>
     </i>
     <i>
-      <x v="5"/>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="4"/>
     </i>
     <i>
       <x v="3"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="9"/>
     </i>
     <i t="grand">
       <x/>
@@ -7967,7 +7958,7 @@
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
       <members count="1" level="1">
-        <member name="[data_jobs_salary].[job_country].&amp;[United States]"/>
+        <member name="[data_jobs_salary].[job_country].&amp;[Singapore]"/>
       </members>
     </pivotHierarchy>
     <pivotHierarchy dragToData="1"/>
@@ -8055,7 +8046,7 @@
         </level>
       </levels>
       <selections count="1">
-        <selection n="[data_jobs_skills].[job_title_short].&amp;[Data Engineer]"/>
+        <selection n="[data_jobs_skills].[job_title_short].&amp;[Data Analyst]"/>
       </selections>
     </olap>
   </data>
@@ -8077,29 +8068,25 @@
         <level uniqueName="[data_jobs_salary].[job_country].[job_country]" sourceCaption="job_country" count="111">
           <ranges>
             <range startItem="0">
-              <i n="[data_jobs_salary].[job_country].&amp;[Algeria]" c="Algeria"/>
+              <i n="[data_jobs_salary].[job_country].&amp;[Albania]" c="Albania"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Argentina]" c="Argentina"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Armenia]" c="Armenia"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Australia]" c="Australia"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Austria]" c="Austria"/>
-              <i n="[data_jobs_salary].[job_country].&amp;[Bahamas]" c="Bahamas"/>
-              <i n="[data_jobs_salary].[job_country].&amp;[Bangladesh]" c="Bangladesh"/>
+              <i n="[data_jobs_salary].[job_country].&amp;[Belarus]" c="Belarus"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Belgium]" c="Belgium"/>
-              <i n="[data_jobs_salary].[job_country].&amp;[Bolivia]" c="Bolivia"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Brazil]" c="Brazil"/>
-              <i n="[data_jobs_salary].[job_country].&amp;[Brunei]" c="Brunei"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Bulgaria]" c="Bulgaria"/>
+              <i n="[data_jobs_salary].[job_country].&amp;[Cambodia]" c="Cambodia"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Canada]" c="Canada"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Chile]" c="Chile"/>
               <i n="[data_jobs_salary].[job_country].&amp;[China]" c="China"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Colombia]" c="Colombia"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Costa Rica]" c="Costa Rica"/>
-              <i n="[data_jobs_salary].[job_country].&amp;[Côte d'Ivoire]" c="Côte d'Ivoire"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Croatia]" c="Croatia"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Cyprus]" c="Cyprus"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Czechia]" c="Czechia"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Denmark]" c="Denmark"/>
-              <i n="[data_jobs_salary].[job_country].&amp;[Ecuador]" c="Ecuador"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Egypt]" c="Egypt"/>
               <i n="[data_jobs_salary].[job_country].&amp;[El Salvador]" c="El Salvador"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Estonia]" c="Estonia"/>
@@ -8107,6 +8094,7 @@
               <i n="[data_jobs_salary].[job_country].&amp;[France]" c="France"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Germany]" c="Germany"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Greece]" c="Greece"/>
+              <i n="[data_jobs_salary].[job_country].&amp;[Guam]" c="Guam"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Guatemala]" c="Guatemala"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Hong Kong]" c="Hong Kong"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Hungary]" c="Hungary"/>
@@ -8115,12 +8103,10 @@
               <i n="[data_jobs_salary].[job_country].&amp;[Ireland]" c="Ireland"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Israel]" c="Israel"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Italy]" c="Italy"/>
-              <i n="[data_jobs_salary].[job_country].&amp;[Jamaica]" c="Jamaica"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Japan]" c="Japan"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Kazakhstan]" c="Kazakhstan"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Kenya]" c="Kenya"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Latvia]" c="Latvia"/>
-              <i n="[data_jobs_salary].[job_country].&amp;[Lebanon]" c="Lebanon"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Lithuania]" c="Lithuania"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Luxembourg]" c="Luxembourg"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Macedonia (FYROM)]" c="Macedonia (FYROM)"/>
@@ -8130,23 +8116,24 @@
               <i n="[data_jobs_salary].[job_country].&amp;[Mexico]" c="Mexico"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Montenegro]" c="Montenegro"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Morocco]" c="Morocco"/>
+              <i n="[data_jobs_salary].[job_country].&amp;[Namibia]" c="Namibia"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Nepal]" c="Nepal"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Netherlands]" c="Netherlands"/>
               <i n="[data_jobs_salary].[job_country].&amp;[New Zealand]" c="New Zealand"/>
+              <i n="[data_jobs_salary].[job_country].&amp;[Nicaragua]" c="Nicaragua"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Nigeria]" c="Nigeria"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Norway]" c="Norway"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Pakistan]" c="Pakistan"/>
-              <i n="[data_jobs_salary].[job_country].&amp;[Paraguay]" c="Paraguay"/>
+              <i n="[data_jobs_salary].[job_country].&amp;[Panama]" c="Panama"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Peru]" c="Peru"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Philippines]" c="Philippines"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Poland]" c="Poland"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Portugal]" c="Portugal"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Puerto Rico]" c="Puerto Rico"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Romania]" c="Romania"/>
+              <i n="[data_jobs_salary].[job_country].&amp;[Senegal]" c="Senegal"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Serbia]" c="Serbia"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Singapore]" c="Singapore"/>
-              <i n="[data_jobs_salary].[job_country].&amp;[Slovakia]" c="Slovakia"/>
-              <i n="[data_jobs_salary].[job_country].&amp;[Slovenia]" c="Slovenia"/>
               <i n="[data_jobs_salary].[job_country].&amp;[South Africa]" c="South Africa"/>
               <i n="[data_jobs_salary].[job_country].&amp;[South Korea]" c="South Korea"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Spain]" c="Spain"/>
@@ -8156,36 +8143,40 @@
               <i n="[data_jobs_salary].[job_country].&amp;[Switzerland]" c="Switzerland"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Taiwan]" c="Taiwan"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Thailand]" c="Thailand"/>
-              <i n="[data_jobs_salary].[job_country].&amp;[Tunisia]" c="Tunisia"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Turkey]" c="Turkey"/>
+              <i n="[data_jobs_salary].[job_country].&amp;[U.S. Virgin Islands]" c="U.S. Virgin Islands"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Ukraine]" c="Ukraine"/>
               <i n="[data_jobs_salary].[job_country].&amp;[United Arab Emirates]" c="United Arab Emirates"/>
               <i n="[data_jobs_salary].[job_country].&amp;[United Kingdom]" c="United Kingdom"/>
               <i n="[data_jobs_salary].[job_country].&amp;[United States]" c="United States"/>
-              <i n="[data_jobs_salary].[job_country].&amp;[Venezuela]" c="Venezuela"/>
+              <i n="[data_jobs_salary].[job_country].&amp;[Uruguay]" c="Uruguay"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Vietnam]" c="Vietnam"/>
-              <i n="[data_jobs_salary].[job_country].&amp;[Albania]" c="Albania"/>
+              <i n="[data_jobs_salary].[job_country].&amp;[Algeria]" c="Algeria"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Azerbaijan]" c="Azerbaijan"/>
-              <i n="[data_jobs_salary].[job_country].&amp;[Belarus]" c="Belarus"/>
+              <i n="[data_jobs_salary].[job_country].&amp;[Bahamas]" c="Bahamas"/>
+              <i n="[data_jobs_salary].[job_country].&amp;[Bangladesh]" c="Bangladesh"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Benin]" c="Benin"/>
+              <i n="[data_jobs_salary].[job_country].&amp;[Bolivia]" c="Bolivia"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Bosnia and Herzegovina]" c="Bosnia and Herzegovina"/>
-              <i n="[data_jobs_salary].[job_country].&amp;[Cambodia]" c="Cambodia"/>
+              <i n="[data_jobs_salary].[job_country].&amp;[Brunei]" c="Brunei"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Cameroon]" c="Cameroon"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Congo, Democratic Republic of the]" c="Congo, Democratic Republic of the"/>
+              <i n="[data_jobs_salary].[job_country].&amp;[Côte d'Ivoire]" c="Côte d'Ivoire"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Dominican Republic]" c="Dominican Republic"/>
+              <i n="[data_jobs_salary].[job_country].&amp;[Ecuador]" c="Ecuador"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Gambia]" c="Gambia"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Ghana]" c="Ghana"/>
-              <i n="[data_jobs_salary].[job_country].&amp;[Guam]" c="Guam"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Honduras]" c="Honduras"/>
+              <i n="[data_jobs_salary].[job_country].&amp;[Jamaica]" c="Jamaica"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Jordan]" c="Jordan"/>
-              <i n="[data_jobs_salary].[job_country].&amp;[Namibia]" c="Namibia"/>
-              <i n="[data_jobs_salary].[job_country].&amp;[Nicaragua]" c="Nicaragua"/>
-              <i n="[data_jobs_salary].[job_country].&amp;[Panama]" c="Panama"/>
+              <i n="[data_jobs_salary].[job_country].&amp;[Lebanon]" c="Lebanon"/>
+              <i n="[data_jobs_salary].[job_country].&amp;[Paraguay]" c="Paraguay"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Russia]" c="Russia"/>
-              <i n="[data_jobs_salary].[job_country].&amp;[Senegal]" c="Senegal"/>
-              <i n="[data_jobs_salary].[job_country].&amp;[U.S. Virgin Islands]" c="U.S. Virgin Islands"/>
+              <i n="[data_jobs_salary].[job_country].&amp;[Slovakia]" c="Slovakia"/>
+              <i n="[data_jobs_salary].[job_country].&amp;[Slovenia]" c="Slovenia"/>
+              <i n="[data_jobs_salary].[job_country].&amp;[Tunisia]" c="Tunisia"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Uganda]" c="Uganda"/>
-              <i n="[data_jobs_salary].[job_country].&amp;[Uruguay]" c="Uruguay"/>
+              <i n="[data_jobs_salary].[job_country].&amp;[Venezuela]" c="Venezuela"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Zambia]" c="Zambia"/>
               <i n="[data_jobs_salary].[job_country].&amp;[Zimbabwe]" c="Zimbabwe"/>
             </range>
@@ -8193,7 +8184,7 @@
         </level>
       </levels>
       <selections count="1">
-        <selection n="[data_jobs_salary].[job_country].&amp;[India]"/>
+        <selection n="[data_jobs_salary].[job_country].&amp;[Singapore]"/>
       </selections>
     </olap>
   </data>
@@ -8328,7 +8319,7 @@
         </level>
       </levels>
       <selections count="1">
-        <selection n="[data_jobs_salary].[job_country].&amp;[United States]"/>
+        <selection n="[data_jobs_salary].[job_country].&amp;[Singapore]"/>
       </selections>
     </olap>
   </data>
@@ -8378,13 +8369,13 @@
 
 <file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="job_country 3" xr10:uid="{947DBC54-8D40-476B-A816-067F24527E9E}" cache="Slicer_job_country" caption="Country" startItem="75" level="1" rowHeight="247650"/>
+  <slicer name="job_country 3" xr10:uid="{947DBC54-8D40-476B-A816-067F24527E9E}" cache="Slicer_job_country" caption="Country" startItem="68" level="1" rowHeight="247650"/>
 </slicers>
 </file>
 
 <file path=xl/slicers/slicer3.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="job_country 1" xr10:uid="{7B15D29B-18DF-448D-BD6B-5EDA9010EF10}" cache="Slicer_job_country" caption="Country" startItem="78" level="1" rowHeight="247650"/>
+  <slicer name="job_country 1" xr10:uid="{7B15D29B-18DF-448D-BD6B-5EDA9010EF10}" cache="Slicer_job_country" caption="Country" startItem="63" level="1" rowHeight="247650"/>
 </slicers>
 </file>
 
@@ -8397,7 +8388,7 @@
 
 <file path=xl/slicers/slicer5.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="job_country 4" xr10:uid="{9AF4EB73-35A7-4C50-B3FF-6909091339E0}" cache="Slicer_job_country1" caption="Country" startItem="77" level="1" rowHeight="247650"/>
+  <slicer name="job_country 4" xr10:uid="{9AF4EB73-35A7-4C50-B3FF-6909091339E0}" cache="Slicer_job_country1" caption="Country" startItem="63" level="1" rowHeight="247650"/>
   <slicer name="job_title_short 2" xr10:uid="{3CF1981F-7CCB-4A28-A6DB-A168852343FD}" cache="Slicer_job_title_short1" caption="job_title_short" level="1" rowHeight="247650"/>
 </slicers>
 </file>
@@ -8722,7 +8713,7 @@
   <dimension ref="A2:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8733,98 +8724,98 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="4">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="B3" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="4">
-        <v>44</v>
+        <v>28</v>
+      </c>
+      <c r="B4" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="4">
-        <v>49</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="7">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="4">
-        <v>52</v>
+        <v>25</v>
+      </c>
+      <c r="B6" s="7">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="4">
-        <v>57</v>
+        <v>23</v>
+      </c>
+      <c r="B7" s="7">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="4">
-        <v>57</v>
+        <v>5</v>
+      </c>
+      <c r="B8" s="7">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="4">
-        <v>60</v>
+        <v>6</v>
+      </c>
+      <c r="B9" s="7">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="4">
-        <v>84</v>
+        <v>4</v>
+      </c>
+      <c r="B10" s="7">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="4">
-        <v>99</v>
+        <v>3</v>
+      </c>
+      <c r="B11" s="7">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="4">
-        <v>114</v>
+        <v>2</v>
+      </c>
+      <c r="B12" s="7">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="4">
-        <v>652</v>
+        <v>1</v>
+      </c>
+      <c r="B13" s="7">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -8842,9 +8833,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98579974-7077-4937-B86A-7A34070E9483}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
@@ -8860,13 +8851,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E1" t="str" cm="1">
         <f t="array" ref="E1:G11" xml:space="preserve"> A1:C11</f>
@@ -8881,33 +8872,33 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="6">
-        <v>149653</v>
-      </c>
-      <c r="C2" s="5">
-        <v>5.2424242424242422</v>
+        <v>16</v>
+      </c>
+      <c r="B2" s="5">
+        <v>157500</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3</v>
       </c>
       <c r="E2" t="str">
         <v>Senior Data Scientist</v>
       </c>
       <c r="F2">
-        <v>149653</v>
+        <v>157500</v>
       </c>
       <c r="G2">
-        <v>5.2424242424242422</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="6">
+        <v>15</v>
+      </c>
+      <c r="B3" s="5">
         <v>147500</v>
       </c>
-      <c r="C3" s="5">
-        <v>7.666666666666667</v>
+      <c r="C3" s="4">
+        <v>8.1999999999999993</v>
       </c>
       <c r="E3" t="str">
         <v>Senior Data Engineer</v>
@@ -8916,167 +8907,176 @@
         <v>147500</v>
       </c>
       <c r="G3">
-        <v>7.666666666666667</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="6">
-        <v>147500</v>
-      </c>
-      <c r="C4" s="5">
-        <v>8.1117647058823525</v>
+        <v>12</v>
+      </c>
+      <c r="B4" s="5">
+        <v>131560</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3.9090909090909092</v>
       </c>
       <c r="E4" t="str">
-        <v>Data Engineer</v>
+        <v>Data Scientist</v>
       </c>
       <c r="F4">
-        <v>147500</v>
+        <v>131560</v>
       </c>
       <c r="G4">
-        <v>8.1117647058823525</v>
+        <v>3.9090909090909092</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="6">
-        <v>114008</v>
-      </c>
-      <c r="C5" s="5">
-        <v>5.43010752688172</v>
+        <v>13</v>
+      </c>
+      <c r="B5" s="5">
+        <v>101029</v>
+      </c>
+      <c r="C5" s="4">
+        <v>5</v>
       </c>
       <c r="E5" t="str">
-        <v>Data Scientist</v>
+        <v>Machine Learning Engineer</v>
       </c>
       <c r="F5">
-        <v>114008</v>
+        <v>101029</v>
       </c>
       <c r="G5">
-        <v>5.43010752688172</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="6">
-        <v>111175</v>
-      </c>
-      <c r="C6" s="5">
-        <v>3.7777777777777777</v>
+        <v>14</v>
+      </c>
+      <c r="B6" s="5">
+        <v>100500</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3.8</v>
       </c>
       <c r="E6" t="str">
         <v>Senior Data Analyst</v>
       </c>
       <c r="F6">
-        <v>111175</v>
+        <v>100500</v>
       </c>
       <c r="G6">
-        <v>3.7777777777777777</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="6">
-        <v>100500</v>
-      </c>
-      <c r="C7" s="5">
-        <v>4.2164948453608249</v>
+        <v>10</v>
+      </c>
+      <c r="B7" s="5">
+        <v>99500</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3.4482758620689653</v>
       </c>
       <c r="E7" t="str">
         <v>Data Analyst</v>
       </c>
       <c r="F7">
-        <v>100500</v>
+        <v>99500</v>
       </c>
       <c r="G7">
-        <v>4.2164948453608249</v>
+        <v>3.4482758620689653</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="6">
-        <v>79200</v>
-      </c>
-      <c r="C8" s="5">
-        <v>6.0666666666666664</v>
+        <v>11</v>
+      </c>
+      <c r="B8" s="5">
+        <v>98301.5</v>
+      </c>
+      <c r="C8" s="4">
+        <v>6.416666666666667</v>
       </c>
       <c r="E8" t="str">
-        <v>Software Engineer</v>
+        <v>Data Engineer</v>
       </c>
       <c r="F8">
-        <v>79200</v>
+        <v>98301.5</v>
       </c>
       <c r="G8">
-        <v>6.0666666666666664</v>
+        <v>6.416666666666667</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="6">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5">
         <v>79200</v>
       </c>
-      <c r="C9" s="5">
-        <v>5.6842105263157894</v>
+      <c r="C9" s="4">
+        <v>3.2</v>
       </c>
       <c r="E9" t="str">
-        <v>Machine Learning Engineer</v>
+        <v>Business Analyst</v>
       </c>
       <c r="F9">
         <v>79200</v>
       </c>
       <c r="G9">
-        <v>5.6842105263157894</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="6">
+        <v>17</v>
+      </c>
+      <c r="B10" s="5">
         <v>64800</v>
       </c>
-      <c r="C10" s="5">
-        <v>2.4</v>
+      <c r="C10" s="4">
+        <v>4.8</v>
       </c>
       <c r="E10" t="str">
-        <v>Business Analyst</v>
+        <v>Software Engineer</v>
       </c>
       <c r="F10">
         <v>64800</v>
       </c>
       <c r="G10">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="6">
-        <v>111175</v>
-      </c>
-      <c r="C11" s="5">
-        <v>6.1561969439728355</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B11" s="5">
+        <v>50400</v>
+      </c>
+      <c r="C11" s="4"/>
       <c r="E11" t="str">
-        <v>Grand Total</v>
+        <v>Cloud Engineer</v>
       </c>
       <c r="F11">
-        <v>111175</v>
+        <v>50400</v>
       </c>
       <c r="G11">
-        <v>6.1561969439728355</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5">
+        <v>100500</v>
+      </c>
+      <c r="C12" s="4">
+        <v>4.5148514851485144</v>
       </c>
     </row>
   </sheetData>
@@ -9094,10 +9094,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{940DD4F7-6B37-4792-B67E-A968D831B6A6}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9110,155 +9110,169 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="6">
-        <v>64800</v>
-      </c>
-      <c r="C2" s="6">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5">
+        <v>79200</v>
+      </c>
+      <c r="C2" s="5">
         <v>90000</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>75000</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="6">
-        <v>100500</v>
-      </c>
-      <c r="C3" s="6">
-        <v>90000</v>
-      </c>
-      <c r="D3" s="6">
-        <v>90000</v>
+        <v>29</v>
+      </c>
+      <c r="B3" s="5">
+        <v>50400</v>
+      </c>
+      <c r="C3" s="5">
+        <v>115000</v>
+      </c>
+      <c r="D3" s="5">
+        <v>89100</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="6">
-        <v>147500</v>
-      </c>
-      <c r="C4" s="6">
-        <v>125000</v>
-      </c>
-      <c r="D4" s="6">
-        <v>123500</v>
+        <v>10</v>
+      </c>
+      <c r="B4" s="5">
+        <v>99500</v>
+      </c>
+      <c r="C4" s="5">
+        <v>90000</v>
+      </c>
+      <c r="D4" s="5">
+        <v>90000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="6">
-        <v>114008</v>
-      </c>
-      <c r="C5" s="6">
-        <v>130000</v>
-      </c>
-      <c r="D5" s="6">
-        <v>119550</v>
+        <v>11</v>
+      </c>
+      <c r="B5" s="5">
+        <v>98301.5</v>
+      </c>
+      <c r="C5" s="5">
+        <v>125000</v>
+      </c>
+      <c r="D5" s="5">
+        <v>123500</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="6">
-        <v>79200</v>
-      </c>
-      <c r="C6" s="6">
-        <v>150000</v>
-      </c>
-      <c r="D6" s="6">
-        <v>101029</v>
+        <v>12</v>
+      </c>
+      <c r="B6" s="5">
+        <v>131560</v>
+      </c>
+      <c r="C6" s="5">
+        <v>130000</v>
+      </c>
+      <c r="D6" s="5">
+        <v>119550</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="6">
-        <v>111175</v>
-      </c>
-      <c r="C7" s="6">
-        <v>110000</v>
-      </c>
-      <c r="D7" s="6">
-        <v>111175</v>
+        <v>13</v>
+      </c>
+      <c r="B7" s="5">
+        <v>101029</v>
+      </c>
+      <c r="C7" s="5">
+        <v>150000</v>
+      </c>
+      <c r="D7" s="5">
+        <v>101029</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="6">
-        <v>147500</v>
-      </c>
-      <c r="C8" s="6">
-        <v>150000</v>
-      </c>
-      <c r="D8" s="6">
-        <v>147500</v>
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>100500</v>
+      </c>
+      <c r="C8" s="5">
+        <v>110000</v>
+      </c>
+      <c r="D8" s="5">
+        <v>111175</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="6">
-        <v>149653</v>
-      </c>
-      <c r="C9" s="6">
-        <v>155000</v>
-      </c>
-      <c r="D9" s="6">
-        <v>155000</v>
+        <v>15</v>
+      </c>
+      <c r="B9" s="5">
+        <v>147500</v>
+      </c>
+      <c r="C9" s="5">
+        <v>150000</v>
+      </c>
+      <c r="D9" s="5">
+        <v>147500</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="6">
-        <v>79200</v>
-      </c>
-      <c r="C10" s="6">
-        <v>125000</v>
-      </c>
-      <c r="D10" s="6">
-        <v>89100</v>
+        <v>16</v>
+      </c>
+      <c r="B10" s="5">
+        <v>157500</v>
+      </c>
+      <c r="C10" s="5">
+        <v>155000</v>
+      </c>
+      <c r="D10" s="5">
+        <v>155000</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="6">
-        <v>111175</v>
-      </c>
-      <c r="C11" s="6">
+        <v>17</v>
+      </c>
+      <c r="B11" s="5">
+        <v>64800</v>
+      </c>
+      <c r="C11" s="5">
+        <v>125000</v>
+      </c>
+      <c r="D11" s="5">
+        <v>89100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5">
+        <v>100500</v>
+      </c>
+      <c r="C12" s="5">
         <v>118940</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D12" s="5">
         <v>111175</v>
       </c>
     </row>
@@ -9279,7 +9293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F43260D-1A6E-4646-AC09-D015DCC9F0A0}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -9292,134 +9306,134 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="6">
-        <v>147500</v>
+        <v>25</v>
+      </c>
+      <c r="B2" s="5">
+        <v>149653</v>
       </c>
       <c r="C2" s="3">
-        <v>114</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="6">
-        <v>147500</v>
+        <v>28</v>
+      </c>
+      <c r="B3" s="5">
+        <v>105000</v>
       </c>
       <c r="C3" s="3">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="6">
-        <v>147500</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>102750</v>
       </c>
       <c r="C4" s="3">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="6">
-        <v>147500</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="5">
+        <v>100500</v>
       </c>
       <c r="C5" s="3">
-        <v>57</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="6">
-        <v>147500</v>
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>100500</v>
       </c>
       <c r="C6" s="3">
-        <v>84</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="6">
-        <v>147500</v>
+        <v>23</v>
+      </c>
+      <c r="B7" s="5">
+        <v>100500</v>
       </c>
       <c r="C7" s="3">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="6">
-        <v>147500</v>
+        <v>5</v>
+      </c>
+      <c r="B8" s="5">
+        <v>99500</v>
       </c>
       <c r="C8" s="3">
-        <v>44</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="6">
-        <v>147500</v>
+        <v>2</v>
+      </c>
+      <c r="B9" s="5">
+        <v>98500</v>
       </c>
       <c r="C9" s="3">
-        <v>57</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="6">
-        <v>140120.5</v>
+        <v>7</v>
+      </c>
+      <c r="B10" s="5">
+        <v>90000</v>
       </c>
       <c r="C10" s="3">
-        <v>52</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="6">
-        <v>115000</v>
+        <v>24</v>
+      </c>
+      <c r="B11" s="5">
+        <v>75000</v>
       </c>
       <c r="C11" s="3">
-        <v>60</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="6">
-        <v>147500</v>
+        <v>1</v>
+      </c>
+      <c r="B12" s="5">
+        <v>100500</v>
       </c>
       <c r="C12" s="3">
-        <v>652</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -9439,7 +9453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18930F8-9535-4F99-B305-814E20857E9C}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
@@ -9452,134 +9466,134 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="6">
-        <v>97086.5</v>
-      </c>
-      <c r="C2" s="7">
-        <v>0.27653195826837751</v>
+        <v>25</v>
+      </c>
+      <c r="B2" s="5">
+        <v>149653</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.17241379310344829</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6">
-        <v>96923.75</v>
-      </c>
-      <c r="C3" s="7">
-        <v>6.7873845784866285E-2</v>
+        <v>28</v>
+      </c>
+      <c r="B3" s="5">
+        <v>105000</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.10344827586206896</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6">
-        <v>92500</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0.28696486389255305</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>102750</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.44827586206896552</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="6">
-        <v>90000</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0.1680057560858616</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="5">
+        <v>100500</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.27586206896551724</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6">
-        <v>90000</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0.52500299796138628</v>
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>100500</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.34482758620689657</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="6">
-        <v>90000</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0.18803213814606068</v>
+        <v>23</v>
+      </c>
+      <c r="B7" s="5">
+        <v>100500</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.17241379310344829</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6">
-        <v>90000</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0.16033097493704282</v>
+        <v>5</v>
+      </c>
+      <c r="B8" s="5">
+        <v>99500</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.2413793103448276</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="6">
-        <v>85000</v>
-      </c>
-      <c r="C9" s="7">
-        <v>9.653435663748651E-2</v>
+        <v>2</v>
+      </c>
+      <c r="B9" s="5">
+        <v>98500</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.58620689655172409</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="6">
-        <v>84500</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0.41455810049166569</v>
+      <c r="B10" s="5">
+        <v>90000</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.17241379310344829</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="6">
-        <v>81682</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0.10420913778630531</v>
+        <v>24</v>
+      </c>
+      <c r="B11" s="5">
+        <v>75000</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.10344827586206896</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="6">
-        <v>90000</v>
-      </c>
-      <c r="C12" s="7">
-        <v>2.2880441299916057</v>
+        <v>1</v>
+      </c>
+      <c r="B12" s="5">
+        <v>100500</v>
+      </c>
+      <c r="C12" s="6">
+        <v>2.6206896551724137</v>
       </c>
     </row>
   </sheetData>
